--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1742430.441378141</v>
+        <v>1739587.883909254</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587976</v>
+        <v>8444421.381715722</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10553167.39777138</v>
+        <v>10552995.939323</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>333.0858266775317</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4619742408227</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>105.7723452184556</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>177.9938895577358</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.2114886365812</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8.546296656422866</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>128.7978899452903</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>242.7378581659482</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492357</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>50.37830146890192</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>175.039712915732</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>217.0325349306966</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492599</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>181.2349090025077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9724767792989</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>49.00186811940955</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>147.9212967840873</v>
       </c>
       <c r="D25" t="n">
-        <v>109.7846361579107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787829</v>
+        <v>3.034856231149575</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.1015618809468</v>
+        <v>86.40642462889357</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570137</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766567</v>
+        <v>0.4006205789093968</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.70716558832585</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898775</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125477</v>
+        <v>68.76846803530529</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U28" t="n">
-        <v>1.210741176591773</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787829</v>
+        <v>3.034856231149575</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.1015618809468</v>
+        <v>86.40642462889357</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570137</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766567</v>
+        <v>0.4006205789093968</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.1914134263796</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>113.4756336236317</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H32" t="n">
-        <v>285.58054355134</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284788625</v>
+        <v>3.034856231149575</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094726</v>
+        <v>86.40642462889357</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064817</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273043</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392689</v>
+        <v>84.43084369570137</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766936</v>
+        <v>0.4006205789093968</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044363</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>146.8736511589993</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>51.7424342986142</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125518</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308283</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.034856231149575</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889357</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570137</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.4006205789093968</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>65.52002404038426</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>88.34512308508999</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>68.76846803530529</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.034856231149575</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889357</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570137</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.4006205789093968</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>44.70716558832619</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.837070800806615</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>68.76846803530529</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.034856231149575</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081959</v>
+        <v>86.40642462889357</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570137</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.4006205789093968</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.93028422951095</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>44.70716558832592</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.804576744409</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>68.76846803530529</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.034856231149661</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>86.40642462889363</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.43084369570138</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.4006205789094537</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>46.88867595996738</v>
       </c>
       <c r="H46" t="n">
-        <v>5.623597659135302</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012167</v>
+        <v>68.76846803530535</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.6328692562888</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.01781586839</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1289.01781586839</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.2608351981287</v>
+        <v>880.712207877724</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>880.712207877724</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>880.712207877724</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>494.9239552794798</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>487.9784545302763</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2286.15110622881</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2032.389320866901</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1701.32643352333</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1701.32643352333</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1327.86067526225</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.86067526225</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714566</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714566</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714566</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714566</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7222632714566</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>579.982325640618</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>579.982325640618</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>579.982325640618</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694739</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714566</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714566</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2512.021522816099</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2512.021522816099</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2258.25973745419</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="V8" t="n">
-        <v>1927.196850110619</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="W8" t="n">
-        <v>1574.428194840505</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6471865296038</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5048,19 +5048,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.7441371531723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>539.8079542252655</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1644.746393431757</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.061905225871</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1339.17473202496</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.185181126942</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>890.3926019834121</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>708.7441371531723</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C16" t="n">
-        <v>539.8079542252655</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W16" t="n">
-        <v>1287.992971950914</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.185181126942</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="Y16" t="n">
-        <v>890.3926019834121</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001584</v>
@@ -5513,52 +5513,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.6274977408367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927048</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258587</v>
       </c>
       <c r="U19" t="n">
-        <v>1551.511286025232</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V19" t="n">
-        <v>1296.826797819345</v>
+        <v>909.2731541783431</v>
       </c>
       <c r="W19" t="n">
-        <v>1007.409627782384</v>
+        <v>619.8559841413822</v>
       </c>
       <c r="X19" t="n">
-        <v>779.4200768843668</v>
+        <v>391.8664332433649</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.6274977408367</v>
+        <v>171.0738540998348</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,67 +5735,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>625.8141267662568</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1076.848340014666</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.5887995481917</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C22" t="n">
-        <v>515.5887995481917</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>515.5887995481917</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6757059657986</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>220.7857584678882</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5944,16 +5944,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897388</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X22" t="n">
-        <v>736.3813786917218</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.5887995481917</v>
+        <v>432.2000540015824</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,31 +5987,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846823</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.0067194606529</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="C25" t="n">
-        <v>522.070536532746</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>411.1769646560686</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1644.746393431757</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1390.061905225871</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.64473518891</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X25" t="n">
-        <v>872.6551842908927</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y25" t="n">
-        <v>872.6551842908927</v>
+        <v>391.8664332433627</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.48212442563</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485218</v>
+        <v>1953.383054347267</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878468</v>
+        <v>1595.117355740517</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280224</v>
+        <v>1209.329103142273</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906161</v>
+        <v>798.3431983526648</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760573</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696535</v>
+        <v>97.03887490037496</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J26" t="n">
-        <v>524.5104023089599</v>
+        <v>366.8547825927163</v>
       </c>
       <c r="K26" t="n">
-        <v>969.3331573234225</v>
+        <v>826.5718107645506</v>
       </c>
       <c r="L26" t="n">
-        <v>1558.076880695427</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M26" t="n">
-        <v>2244.837149161784</v>
+        <v>2141.113425729795</v>
       </c>
       <c r="N26" t="n">
-        <v>2947.323725136514</v>
+        <v>2864.492643589319</v>
       </c>
       <c r="O26" t="n">
-        <v>3597.326617407972</v>
+        <v>3534.223865147013</v>
       </c>
       <c r="P26" t="n">
-        <v>4117.588046754303</v>
+        <v>4071.322967108118</v>
       </c>
       <c r="Q26" t="n">
-        <v>4529.167173995943</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.05803957324</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223259</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.51859734033</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996759</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465565</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489753</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180867</v>
+        <v>944.643957873806</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369597</v>
+        <v>770.190928592679</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314278</v>
       </c>
       <c r="E27" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259722</v>
       </c>
       <c r="F27" t="n">
-        <v>318.554370397138</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170328</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044004</v>
+        <v>94.37803080720306</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421376</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K27" t="n">
-        <v>545.609818506716</v>
+        <v>417.7488304922123</v>
       </c>
       <c r="L27" t="n">
-        <v>1013.685713517275</v>
+        <v>899.4274433177393</v>
       </c>
       <c r="M27" t="n">
-        <v>1565.663867189277</v>
+        <v>1480.880533344984</v>
       </c>
       <c r="N27" t="n">
-        <v>2160.621074764545</v>
+        <v>2092.13160141333</v>
       </c>
       <c r="O27" t="n">
-        <v>2160.621074764545</v>
+        <v>2111.401639890092</v>
       </c>
       <c r="P27" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.471093864361</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1103.301875980814</v>
+        <v>458.1849390155431</v>
       </c>
       <c r="C28" t="n">
-        <v>934.365693052907</v>
+        <v>289.2487560876363</v>
       </c>
       <c r="D28" t="n">
-        <v>784.2490536405712</v>
+        <v>139.1321166753005</v>
       </c>
       <c r="E28" t="n">
-        <v>636.3359600581781</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="F28" t="n">
-        <v>489.4460125602678</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G28" t="n">
-        <v>322.1425610216739</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H28" t="n">
-        <v>179.4762707375322</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603207</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532475</v>
+        <v>426.0511968217952</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371894</v>
+        <v>808.6157121185336</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396753</v>
+        <v>2394.88141416163</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.127700961142</v>
+        <v>2325.418315136069</v>
       </c>
       <c r="S28" t="n">
-        <v>2271.127700961142</v>
+        <v>2141.626532398767</v>
       </c>
       <c r="T28" t="n">
-        <v>2051.067549082877</v>
+        <v>1921.795351331808</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.844578197431</v>
+        <v>1632.717192130178</v>
       </c>
       <c r="V28" t="n">
-        <v>1795.160089991544</v>
+        <v>1378.032703924291</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.742919954583</v>
+        <v>1088.61553388733</v>
       </c>
       <c r="X28" t="n">
-        <v>1505.742919954583</v>
+        <v>860.625982989313</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.950340811053</v>
+        <v>639.8334038457829</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.48212442563</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878468</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280224</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906168</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760576</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H29" t="n">
-        <v>101.832466369654</v>
+        <v>97.03887490037496</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886068</v>
+        <v>452.7860912701003</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030695</v>
+        <v>912.5031194419346</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675074</v>
+        <v>1519.724505707384</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.953612054107</v>
+        <v>2227.044734407179</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.440188028838</v>
+        <v>2950.423952266703</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300295</v>
+        <v>3620.155173824397</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646626</v>
+        <v>4157.254275785502</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670195</v>
+        <v>4512.420586720684</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573238</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223257</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340329</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996758</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465564</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489752</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180867</v>
+        <v>944.643957873806</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369597</v>
+        <v>770.190928592679</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314278</v>
       </c>
       <c r="E30" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259722</v>
       </c>
       <c r="F30" t="n">
-        <v>318.554370397138</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170327</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044003</v>
+        <v>94.37803080720306</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J30" t="n">
-        <v>231.9507289421376</v>
+        <v>237.6818203523164</v>
       </c>
       <c r="K30" t="n">
-        <v>409.6167321812589</v>
+        <v>561.4572872887493</v>
       </c>
       <c r="L30" t="n">
-        <v>877.6926271918184</v>
+        <v>767.7544453019894</v>
       </c>
       <c r="M30" t="n">
-        <v>1443.271987127746</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="N30" t="n">
-        <v>2038.229194703015</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="O30" t="n">
-        <v>2560.279010110498</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110498</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.471093864361</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2496386565577</v>
+        <v>527.6480380411047</v>
       </c>
       <c r="C31" t="n">
-        <v>533.8340695390031</v>
+        <v>358.7118551131977</v>
       </c>
       <c r="D31" t="n">
-        <v>383.7174301266673</v>
+        <v>208.595215700862</v>
       </c>
       <c r="E31" t="n">
-        <v>383.7174301266673</v>
+        <v>208.595215700862</v>
       </c>
       <c r="F31" t="n">
-        <v>236.827482628757</v>
+        <v>208.595215700862</v>
       </c>
       <c r="G31" t="n">
-        <v>236.827482628757</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="H31" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603207</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532473</v>
+        <v>426.0511968217951</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371895</v>
+        <v>808.6157121185335</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396753</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R31" t="n">
-        <v>2343.000352396753</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="S31" t="n">
-        <v>2158.274661052482</v>
+        <v>2211.089631424328</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.214509174217</v>
+        <v>1991.25845035737</v>
       </c>
       <c r="U31" t="n">
-        <v>1649.133426940953</v>
+        <v>1702.180291155739</v>
       </c>
       <c r="V31" t="n">
-        <v>1394.448938735066</v>
+        <v>1447.495802949853</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.031768698105</v>
+        <v>1158.078632912892</v>
       </c>
       <c r="X31" t="n">
-        <v>877.0422178000879</v>
+        <v>930.0890820148745</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.2496386565577</v>
+        <v>709.2965028713444</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.482124425631</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347267</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878469</v>
+        <v>1595.117355740517</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280225</v>
+        <v>1209.329103142273</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906172</v>
+        <v>798.3431983526648</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760583</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696543</v>
+        <v>97.03887490037496</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886053</v>
+        <v>366.8547825927163</v>
       </c>
       <c r="K32" t="n">
-        <v>1103.449620215766</v>
+        <v>826.5718107645506</v>
       </c>
       <c r="L32" t="n">
-        <v>1692.193343587767</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M32" t="n">
-        <v>2378.953612054121</v>
+        <v>2141.113425729795</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028848</v>
+        <v>2864.492643589319</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300302</v>
+        <v>3534.223865147013</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.70450964663</v>
+        <v>4157.254275785502</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670197</v>
+        <v>4512.420586720684</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230761</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.05803957324</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223258</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.51859734033</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996759</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465565</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489753</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180874</v>
+        <v>944.643957873806</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369604</v>
+        <v>770.190928592679</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757092</v>
+        <v>621.2565189314278</v>
       </c>
       <c r="E33" t="n">
-        <v>465.0889283702536</v>
+        <v>462.0190639259722</v>
       </c>
       <c r="F33" t="n">
-        <v>318.5543703971385</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170332</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585044042</v>
+        <v>94.37803080720306</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J33" t="n">
-        <v>94.16119234461523</v>
+        <v>237.6818203523164</v>
       </c>
       <c r="K33" t="n">
-        <v>407.8202819091919</v>
+        <v>237.6818203523164</v>
       </c>
       <c r="L33" t="n">
-        <v>407.8202819091919</v>
+        <v>719.3604331778434</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3996418451165</v>
+        <v>737.9564672608886</v>
       </c>
       <c r="N33" t="n">
-        <v>1568.356849420383</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="O33" t="n">
-        <v>2090.406664827864</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.037460732813</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110499</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110499</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944402</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023166</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036844</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308642</v>
+        <v>1528.471093864361</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.1352433256767</v>
+        <v>560.9392794784152</v>
       </c>
       <c r="C34" t="n">
-        <v>751.1990603977698</v>
+        <v>392.0030965505083</v>
       </c>
       <c r="D34" t="n">
-        <v>698.9339752476544</v>
+        <v>241.8864571381725</v>
       </c>
       <c r="E34" t="n">
-        <v>551.0208816652613</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="F34" t="n">
-        <v>404.130934167351</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G34" t="n">
-        <v>236.8274826287571</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H34" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603201</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532458</v>
+        <v>426.0511968217952</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371864</v>
+        <v>808.6157121185336</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649978</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408909</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740127</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185964</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396745</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961134</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="S34" t="n">
-        <v>2086.402009616862</v>
+        <v>2211.089631424328</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.341857738597</v>
+        <v>1991.25845035737</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.260775505333</v>
+        <v>1702.180291155739</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.576287299446</v>
+        <v>1447.495802949852</v>
       </c>
       <c r="W34" t="n">
-        <v>1322.576287299446</v>
+        <v>1158.078632912891</v>
       </c>
       <c r="X34" t="n">
-        <v>1322.576287299446</v>
+        <v>930.0890820148741</v>
       </c>
       <c r="Y34" t="n">
-        <v>1101.783708155916</v>
+        <v>709.2965028713438</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963564</v>
+        <v>798.3431983526641</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276573</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160701</v>
+        <v>97.03887490037496</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507201</v>
+        <v>366.8547825927163</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>826.5718107645506</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294977</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234015</v>
+        <v>2141.113425729795</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151121</v>
+        <v>2864.492643589319</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610259</v>
+        <v>3534.223865147013</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297607</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403614</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580352</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4611.38896099211</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.831734702141</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6608414294086</v>
+        <v>944.643957873806</v>
       </c>
       <c r="C36" t="n">
-        <v>769.2078121482816</v>
+        <v>770.190928592679</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314278</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259722</v>
       </c>
       <c r="F36" t="n">
-        <v>314.5013895084599</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160704</v>
+        <v>94.37803080720306</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668118</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="L36" t="n">
-        <v>572.0050724668118</v>
+        <v>575.6519763813064</v>
       </c>
       <c r="M36" t="n">
-        <v>1164.02342671894</v>
+        <v>1157.105066408551</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>1381.944820048389</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1918.900334543006</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2330.521407516027</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.471093864361</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.7802031534889</v>
+        <v>458.1849390155429</v>
       </c>
       <c r="C37" t="n">
-        <v>580.844020225582</v>
+        <v>392.0030965505083</v>
       </c>
       <c r="D37" t="n">
-        <v>580.844020225582</v>
+        <v>241.8864571381725</v>
       </c>
       <c r="E37" t="n">
-        <v>432.9309266431889</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="F37" t="n">
-        <v>343.6934285774414</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411629</v>
+        <v>170.4839550909364</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117266</v>
+        <v>426.051196821795</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948608</v>
+        <v>808.6157121185331</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.45060813932</v>
+        <v>1222.36547709036</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931027</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946057</v>
+        <v>1993.793114956025</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782261</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335697</v>
+        <v>2394.88141416163</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294198</v>
+        <v>2325.418315136069</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033128</v>
+        <v>2141.626532398767</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.70418174751</v>
+        <v>1921.795351331808</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062237</v>
+        <v>1632.717192130178</v>
       </c>
       <c r="V37" t="n">
-        <v>1669.627968062237</v>
+        <v>1378.032703924291</v>
       </c>
       <c r="W37" t="n">
-        <v>1380.210798025276</v>
+        <v>1088.61553388733</v>
       </c>
       <c r="X37" t="n">
-        <v>1152.221247127259</v>
+        <v>860.6259829893128</v>
       </c>
       <c r="Y37" t="n">
-        <v>931.4286679837286</v>
+        <v>639.8334038457826</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2322.345571287677</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1953.383054347265</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740515</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142271</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963562</v>
+        <v>798.3431983526639</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>97.03887490037496</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507201</v>
+        <v>366.8547825927163</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892025</v>
+        <v>826.5718107645506</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294977</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2141.113425729795</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2864.492643589319</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3534.223865147013</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4071.322967108118</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202375</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3825.319156858804</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3472.55050158869</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3099.08474332761</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2708.945411351799</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294086</v>
+        <v>944.643957873806</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482816</v>
+        <v>770.190928592679</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314278</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259722</v>
       </c>
       <c r="F39" t="n">
-        <v>314.5013895084599</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>94.37803080720306</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>237.6818203523164</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668118</v>
+        <v>561.4572872887493</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310563</v>
+        <v>561.4572872887493</v>
       </c>
       <c r="M39" t="n">
-        <v>1062.737405310563</v>
+        <v>1142.910377315994</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.352361269496</v>
+        <v>1754.16144538434</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.22883626969</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.471093864361</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.9550599890991</v>
+        <v>458.1849390155435</v>
       </c>
       <c r="C40" t="n">
-        <v>562.9550599890991</v>
+        <v>289.2487560876366</v>
       </c>
       <c r="D40" t="n">
-        <v>412.8384205767634</v>
+        <v>139.1321166753008</v>
       </c>
       <c r="E40" t="n">
-        <v>412.8384205767634</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="F40" t="n">
-        <v>265.9484730788531</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G40" t="n">
-        <v>98.73427825343191</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H40" t="n">
-        <v>98.73427825343191</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909364</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>426.0511968217949</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>808.6157121185331</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.36547709036</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2394.88141416163</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2325.418315136069</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2141.626532398767</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>1921.795351331808</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103734</v>
+        <v>1632.717192130178</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897847</v>
+        <v>1378.032703924291</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1088.61553388733</v>
       </c>
       <c r="X40" t="n">
-        <v>965.396103962869</v>
+        <v>860.6259829893127</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193389</v>
+        <v>639.8334038457832</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037496</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507201</v>
+        <v>366.8547825927163</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384021</v>
+        <v>826.5718107645506</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2141.113425729795</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800321</v>
+        <v>2864.492643589319</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.64596425946</v>
+        <v>3685.214429498649</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946808</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052816</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.38896099211</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.831734702141</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294086</v>
+        <v>944.643957873806</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482816</v>
+        <v>770.190928592679</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314278</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259722</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084599</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720306</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J42" t="n">
-        <v>241.496329903453</v>
+        <v>156.5033772336437</v>
       </c>
       <c r="K42" t="n">
-        <v>572.005072466812</v>
+        <v>156.5033772336437</v>
       </c>
       <c r="L42" t="n">
-        <v>995.3340070173678</v>
+        <v>156.5033772336437</v>
       </c>
       <c r="M42" t="n">
-        <v>1587.352361269496</v>
+        <v>737.9564672608886</v>
       </c>
       <c r="N42" t="n">
-        <v>1587.352361269496</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="O42" t="n">
-        <v>2134.22883626969</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.471093864361</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890989</v>
+        <v>458.1849390155433</v>
       </c>
       <c r="C43" t="n">
-        <v>394.018877061192</v>
+        <v>289.2487560876363</v>
       </c>
       <c r="D43" t="n">
-        <v>394.018877061192</v>
+        <v>139.1321166753006</v>
       </c>
       <c r="E43" t="n">
-        <v>246.1057834787989</v>
+        <v>139.1321166753006</v>
       </c>
       <c r="F43" t="n">
-        <v>176.4792337520201</v>
+        <v>139.1321166753006</v>
       </c>
       <c r="G43" t="n">
-        <v>176.4792337520201</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520201</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117247</v>
+        <v>426.0511968217951</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>808.6157121185335</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2394.88141416163</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2325.418315136069</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2141.626532398767</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1921.795351331808</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1632.717192130178</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1378.032703924291</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1088.61553388733</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628688</v>
+        <v>860.6259829893131</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193386</v>
+        <v>639.833403845783</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2322.345571287677</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1953.383054347265</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1595.117355740515</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1209.329103142271</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>798.3431983526639</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399035</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037505</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>366.854782592716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>826.57181076455</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1433.793197029999</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2292.103990081434</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>3015.483207940957</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3685.214429498651</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4222.313531459755</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4156.382044202375</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3825.319156858804</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3472.55050158869</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3099.08474332761</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2708.945411351799</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>944.643957873806</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>770.190928592679</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>621.2565189314278</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>462.0190639259722</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>315.4845059528572</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>179.6617113079116</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720312</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7731203228276</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0987265385863</v>
+        <v>568.1244502066667</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.477214165138</v>
+        <v>1149.577540233911</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.20816329446</v>
+        <v>1760.828608302256</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.20816329446</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1528.471093864361</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.6674158852538</v>
+        <v>458.1849390155411</v>
       </c>
       <c r="C46" t="n">
-        <v>793.7312329573469</v>
+        <v>289.2487560876342</v>
       </c>
       <c r="D46" t="n">
-        <v>643.6145935450112</v>
+        <v>289.2487560876342</v>
       </c>
       <c r="E46" t="n">
-        <v>495.7014999626181</v>
+        <v>141.3356625052411</v>
       </c>
       <c r="F46" t="n">
-        <v>348.8115524647077</v>
+        <v>141.3356625052414</v>
       </c>
       <c r="G46" t="n">
-        <v>181.6154531795877</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>170.4839550909366</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>426.0511968217949</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834099</v>
+        <v>808.615712118533</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1222.36547709036</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1631.711813849206</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>1993.793114956025</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2280.095537301694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2394.881414161629</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2325.418315136068</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2141.626532398765</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1921.795351331807</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958341</v>
+        <v>1632.717192130176</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752454</v>
+        <v>1378.032703924289</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1088.615533887328</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.315880715494</v>
+        <v>860.625982989311</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.315880715493</v>
+        <v>639.8334038457808</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415605</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>260.9678829613757</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>189.7998007892645</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>443.8160624667693</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561032</v>
+        <v>7.630896635343902</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>198.7154374299943</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.75475476572865</v>
+        <v>152.5157215673096</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>86.79930169432726</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>304.567789810784</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>304.5677898108086</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>86.79930169432748</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>152.5157215673095</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>51.3126478290913</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>152.5157215673096</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>152.5157215673095</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782908804</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>152.5157215673131</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.3524204098351</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>236.1446968676891</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>50.66994247330513</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.55211842139818</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270113</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>104.9769292031052</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>42.05333147972937</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.5827852326852</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19.3255243145405</v>
       </c>
       <c r="D25" t="n">
-        <v>38.83083686030167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.7267970582433</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.86647848267944</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.97953023434</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.05540767224824</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>52.10173037542448</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898775</v>
+        <v>82.86647848267944</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125477</v>
+        <v>68.76846803530529</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>32.95832902293796</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>96.87303871959816</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898802</v>
+        <v>82.86647848267944</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>68.76846803530529</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>101.7267970582436</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>57.07592493784125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>82.86647848267944</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>101.726797058243</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I40" t="n">
-        <v>76.9675059436024</v>
+        <v>82.86647848267944</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>76.4907637934203</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>120.8701984107303</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>82.86647848267944</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108353</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>118.6886880390888</v>
       </c>
       <c r="H46" t="n">
-        <v>134.6711151870886</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>82.86647848267948</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897877.7408966771</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893347.9987484314</v>
+        <v>892740.2044985325</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893347.9987484316</v>
+        <v>892740.2044985326</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893347.9987484316</v>
+        <v>892740.2044985325</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892335.6677697609</v>
+        <v>892740.2044985325</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>892335.6677697611</v>
+        <v>892740.2044985325</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>892335.6677697608</v>
+        <v>892740.2044985325</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>892130.8674140931</v>
+        <v>892740.2044985326</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530785</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="F2" t="n">
         <v>516206.3229530783</v>
@@ -26329,31 +26329,31 @@
         <v>516206.3229530783</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530785</v>
+        <v>516206.322953078</v>
       </c>
       <c r="I2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="J2" t="n">
-        <v>522857.4955389387</v>
+        <v>523749.9402566445</v>
       </c>
       <c r="K2" t="n">
-        <v>522857.4955389388</v>
+        <v>523749.9402566443</v>
       </c>
       <c r="L2" t="n">
-        <v>522857.4955389384</v>
+        <v>523749.9402566444</v>
       </c>
       <c r="M2" t="n">
-        <v>524343.9351270635</v>
+        <v>523749.9402566444</v>
       </c>
       <c r="N2" t="n">
-        <v>524343.9351270634</v>
+        <v>523749.9402566444</v>
       </c>
       <c r="O2" t="n">
-        <v>524343.9351270634</v>
+        <v>523749.9402566444</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>523749.9402566442</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733748</v>
+        <v>355203.9046935394</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.910181363540081e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408612</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.13257495248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499382</v>
@@ -26430,34 +26430,34 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="H4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="J4" t="n">
-        <v>9308.90653674949</v>
+        <v>7191.326383352451</v>
       </c>
       <c r="K4" t="n">
-        <v>9308.90653674956</v>
+        <v>7191.326383352453</v>
       </c>
       <c r="L4" t="n">
-        <v>9308.906536749902</v>
+        <v>7191.326383352456</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855067</v>
+        <v>7191.326383352449</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855121</v>
+        <v>7191.326383352452</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855074</v>
+        <v>7191.32638335245</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>7191.326383352501</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,25 +26491,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493307</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100598.171801788</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939014</v>
+        <v>-340214.3127939013</v>
       </c>
       <c r="C6" t="n">
         <v>249753.5664206436</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206434</v>
+        <v>249753.5664206432</v>
       </c>
       <c r="E6" t="n">
-        <v>-332645.3329690357</v>
+        <v>-332712.528459262</v>
       </c>
       <c r="F6" t="n">
-        <v>394732.0810243708</v>
+        <v>394664.885534145</v>
       </c>
       <c r="G6" t="n">
-        <v>394732.0810243708</v>
+        <v>394664.885534145</v>
       </c>
       <c r="H6" t="n">
-        <v>394732.081024371</v>
+        <v>394664.8855341448</v>
       </c>
       <c r="I6" t="n">
-        <v>394732.0810243706</v>
+        <v>394664.885534145</v>
       </c>
       <c r="J6" t="n">
-        <v>79395.7050794836</v>
+        <v>60718.35580044485</v>
       </c>
       <c r="K6" t="n">
-        <v>413449.0301528585</v>
+        <v>415922.2604939841</v>
       </c>
       <c r="L6" t="n">
-        <v>413449.0301528614</v>
+        <v>415922.2604939841</v>
       </c>
       <c r="M6" t="n">
-        <v>254502.4450341086</v>
+        <v>286279.9456550393</v>
       </c>
       <c r="N6" t="n">
-        <v>417631.9237749697</v>
+        <v>415922.2604939841</v>
       </c>
       <c r="O6" t="n">
-        <v>417631.9237749698</v>
+        <v>415922.2604939841</v>
       </c>
       <c r="P6" t="n">
-        <v>411818.9541192112</v>
+        <v>415922.2604939839</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,25 +26759,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184548</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1338.459426577783</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26811,25 +26811,25 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="M4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="N4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="O4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="P4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,16 +26981,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912548</v>
+        <v>248.6827259844854</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.828425530592602e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183772</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625287693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>654.4413865968681</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377724</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>73.79021906417978</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.269126437646378</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>308.0118248023394</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>38.45443079992199</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>12.0983136224697</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>243.5913466674051</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>45.61782286368128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8.486309342341059</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>23.70481751979031</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.135517270509462e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.991384917550022e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-2.294359777134052e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.980907020906946e-12</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32567,10 +32567,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378021</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442733</v>
+        <v>55.10551799975767</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392563</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336932</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010034</v>
+        <v>684.4504855619849</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386789</v>
+        <v>849.1213505916528</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023805</v>
+        <v>944.8111107018141</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710665</v>
+        <v>960.0991422425744</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736638</v>
+        <v>906.5943948132967</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545938</v>
+        <v>773.7573411705267</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719936</v>
+        <v>581.0595393039262</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081074</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052985</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764977</v>
+        <v>23.5541955370623</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377453</v>
+        <v>0.4304593130702416</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906397</v>
+        <v>2.878950464714478</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256968</v>
+        <v>27.8046005407951</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923343</v>
+        <v>99.1217594210906</v>
       </c>
       <c r="J27" t="n">
-        <v>266.0189767651742</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709028</v>
+        <v>464.8873651727761</v>
       </c>
       <c r="L27" t="n">
-        <v>611.3583141339747</v>
+        <v>625.0984331389924</v>
       </c>
       <c r="M27" t="n">
-        <v>699.6877244997972</v>
+        <v>729.4603874848921</v>
       </c>
       <c r="N27" t="n">
-        <v>732.3085884219888</v>
+        <v>748.7670333644905</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>162.0609297745073</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021611</v>
+        <v>549.753269003241</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267463</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940169</v>
+        <v>53.47524218449915</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1894046358364789</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250833</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613924</v>
+        <v>21.45923474087005</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827053</v>
+        <v>72.58399644457884</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022339</v>
+        <v>170.642605909761</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409604</v>
+        <v>280.418220846952</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697225</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793646</v>
+        <v>378.3451785652577</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661573</v>
+        <v>369.3489758620303</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589088</v>
+        <v>341.1535600726457</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408332</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908675</v>
+        <v>202.1073734132453</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614405</v>
+        <v>42.06273312704279</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765034</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378021</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442733</v>
+        <v>55.10551799975767</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392563</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336932</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010034</v>
+        <v>684.4504855619849</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386789</v>
+        <v>849.1213505916528</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023805</v>
+        <v>944.8111107018141</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710665</v>
+        <v>960.0991422425744</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736638</v>
+        <v>906.5943948132967</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545938</v>
+        <v>773.7573411705267</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719936</v>
+        <v>581.0595393039262</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081074</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052985</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764977</v>
+        <v>23.5541955370623</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377453</v>
+        <v>0.4304593130702416</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906397</v>
+        <v>2.878950464714478</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256968</v>
+        <v>27.8046005407951</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923343</v>
+        <v>99.1217594210906</v>
       </c>
       <c r="J30" t="n">
-        <v>266.0189767651742</v>
+        <v>271.9976840369061</v>
       </c>
       <c r="K30" t="n">
-        <v>317.3020483068047</v>
+        <v>464.8873651727761</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339747</v>
+        <v>346.9353474700158</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855814</v>
+        <v>729.4603874848921</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219888</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>669.9192903105892</v>
+        <v>684.9755520147644</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>549.753269003241</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256587</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267463</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940169</v>
+        <v>53.47524218449915</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1894046358364789</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250833</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613924</v>
+        <v>21.45923474087005</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827053</v>
+        <v>72.58399644457884</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022339</v>
+        <v>170.642605909761</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409604</v>
+        <v>280.418220846952</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697225</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793646</v>
+        <v>378.3451785652577</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661573</v>
+        <v>369.3489758620303</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589088</v>
+        <v>341.1535600726457</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408332</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908675</v>
+        <v>202.1073734132453</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614405</v>
+        <v>42.06273312704279</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765034</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721797</v>
+        <v>5.380741413378021</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442712</v>
+        <v>55.10551799975767</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856173</v>
+        <v>207.4410333392563</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357671</v>
+        <v>456.6837015336932</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010009</v>
+        <v>684.4504855619849</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386757</v>
+        <v>849.1213505916528</v>
       </c>
       <c r="M32" t="n">
-        <v>924.043474102377</v>
+        <v>944.8111107018141</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710628</v>
+        <v>960.0991422425744</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736604</v>
+        <v>906.5943948132967</v>
       </c>
       <c r="P32" t="n">
-        <v>756.749591054591</v>
+        <v>773.7573411705267</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719914</v>
+        <v>581.0595393039262</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520759</v>
+        <v>337.9979978081074</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052981</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764968</v>
+        <v>23.5541955370623</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377437</v>
+        <v>0.4304593130702416</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906387</v>
+        <v>2.878950464714478</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256958</v>
+        <v>27.8046005407951</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923306</v>
+        <v>99.1217594210906</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>271.9976840369061</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709011</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>625.0984331389924</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855786</v>
+        <v>160.9179067331751</v>
       </c>
       <c r="N33" t="n">
-        <v>732.3085884219861</v>
+        <v>748.7670333644905</v>
       </c>
       <c r="O33" t="n">
-        <v>669.9192903105866</v>
+        <v>684.9755520147644</v>
       </c>
       <c r="P33" t="n">
-        <v>389.1570295405414</v>
+        <v>549.753269003241</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.4176825483311</v>
+        <v>367.4955014256587</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267463</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940149</v>
+        <v>53.47524218449915</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279811</v>
+        <v>11.60419068891493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412097</v>
+        <v>0.1894046358364789</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250824</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613916</v>
+        <v>21.45923474087005</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827026</v>
+        <v>72.58399644457884</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022333</v>
+        <v>170.642605909761</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409593</v>
+        <v>280.418220846952</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790181</v>
+        <v>358.8387780697225</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793632</v>
+        <v>378.3451785652577</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661559</v>
+        <v>369.3489758620303</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589075</v>
+        <v>341.1535600726457</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197905</v>
+        <v>291.9158067408332</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908668</v>
+        <v>202.1073734132453</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559143</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S34" t="n">
-        <v>41.1381636061439</v>
+        <v>42.06273312704279</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879897</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U34" t="n">
-        <v>0.128757945559136</v>
+        <v>0.1316517468765034</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378021</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975767</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392563</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336932</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619849</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>849.1213505916528</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018141</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425744</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132967</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>773.7573411705267</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039262</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081074</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.5541955370623</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702416</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.878950464714478</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>27.8046005407951</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>99.1217594210906</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>625.0984331389924</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>729.4603874848921</v>
       </c>
       <c r="N36" t="n">
-        <v>558.946696477835</v>
+        <v>358.4525743457954</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>684.9755520147644</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>549.753269003241</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256587</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449915</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1894046358364789</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087005</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457884</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>170.642605909761</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>280.418220846952</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697225</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652577</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620303</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726457</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408332</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132453</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704279</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765034</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378021</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975767</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392563</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336932</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619849</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>849.1213505916528</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018141</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425744</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132967</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>773.7573411705267</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039262</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081074</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.5541955370623</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702416</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.878950464714478</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>27.8046005407951</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>99.1217594210906</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>271.9976840369061</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>464.8873651727761</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>729.4603874848921</v>
       </c>
       <c r="N39" t="n">
-        <v>661.2558090115484</v>
+        <v>748.7670333644905</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>275.9311984237488</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>549.753269003241</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256587</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267463</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449915</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1894046358364789</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087005</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457884</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>170.642605909761</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>280.418220846952</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697225</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652577</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620303</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726457</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408332</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132453</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704279</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765034</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377427</v>
+        <v>5.380741413378021</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122284</v>
+        <v>55.10551799975767</v>
       </c>
       <c r="I41" t="n">
-        <v>210.475889570406</v>
+        <v>207.4410333392563</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874066</v>
+        <v>456.6837015336932</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830432</v>
+        <v>684.4504855619849</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364266</v>
+        <v>849.1213505916528</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293311</v>
+        <v>944.8111107018141</v>
       </c>
       <c r="N41" t="n">
-        <v>974.145364522961</v>
+        <v>960.0991422425744</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086955</v>
+        <v>906.5943948132967</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687526</v>
+        <v>773.7573411705267</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148608</v>
+        <v>581.0595393039262</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081074</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854258</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.5541955370623</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.4304593130702416</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540906</v>
+        <v>2.878950464714478</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>27.8046005407951</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>99.1217594210906</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735819</v>
+        <v>189.9992566443074</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848226</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>566.159364174375</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504303</v>
+        <v>729.4603874848921</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>748.7670333644905</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426206</v>
+        <v>684.9755520147644</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982455</v>
+        <v>549.753269003241</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256587</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267463</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449915</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1894046358364789</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548568</v>
+        <v>21.45923474087005</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284928</v>
+        <v>72.58399644457884</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>170.642605909761</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900887</v>
+        <v>280.418220846952</v>
       </c>
       <c r="L43" t="n">
-        <v>364.088578864062</v>
+        <v>358.8387780697225</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265023</v>
+        <v>378.3451785652577</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416876</v>
+        <v>369.3489758620303</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465964</v>
+        <v>341.1535600726457</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282425</v>
+        <v>291.9158067408332</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561743</v>
+        <v>202.1073734132453</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704279</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765034</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.380741413378018</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.10551799975764</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>207.4410333392563</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>456.683701533693</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>684.4504855619846</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>849.1213505916523</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>944.8111107018136</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>960.099142242574</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>906.5943948132963</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>773.7573411705263</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>581.0595393039258</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>337.9979978081072</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>122.6136449573517</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.55419553706228</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4304593130702414</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.878950464714477</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>27.80460054079508</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109054</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>617.494871346427</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>729.4603874848916</v>
       </c>
       <c r="N45" t="n">
-        <v>510.867923325072</v>
+        <v>748.7670333644902</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>684.975552014764</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>367.4955014256585</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267463</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>53.47524218449912</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.60419068891493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1894046358364788</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.413615359402559</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.45923474087004</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>72.5839964445788</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>170.6426059097609</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>280.4182208469518</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>358.8387780697224</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>378.3451785652575</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>369.3489758620301</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>341.1535600726455</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>291.915806740833</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>202.1073734132452</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>108.5249233418641</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.06273312704277</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.31272017199275</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1316517468765034</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,22 +35416,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>799.8889987916025</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>588.5617870086363</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>982.737178296996</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702004</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115037</v>
+        <v>344.8221831907444</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36215,10 +36215,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789353</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3055518223265</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>434.6961716811563</v>
+        <v>275.6377970070069</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560229</v>
+        <v>464.3606345170044</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686916</v>
+        <v>613.3549356216656</v>
       </c>
       <c r="M26" t="n">
-        <v>693.6972408751078</v>
+        <v>714.4648774745414</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744755</v>
+        <v>730.6860786459836</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519771</v>
+        <v>676.49618339161</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993243</v>
+        <v>542.5243454152571</v>
       </c>
       <c r="Q26" t="n">
-        <v>415.7364921632727</v>
+        <v>511.2695709967862</v>
       </c>
       <c r="R26" t="n">
-        <v>180.6994376109275</v>
+        <v>122.4124599939753</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1813500985075</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965438</v>
+        <v>327.0459261984171</v>
       </c>
       <c r="L27" t="n">
-        <v>472.8039343541005</v>
+        <v>486.5440533591182</v>
       </c>
       <c r="M27" t="n">
-        <v>557.5536905777789</v>
+        <v>587.3263535628737</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386555</v>
+        <v>617.4253212811573</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>19.46468533006287</v>
       </c>
       <c r="P27" t="n">
-        <v>403.6948841878309</v>
+        <v>415.7788615889108</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.06796436278239</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556112</v>
+        <v>77.28342579308824</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150775</v>
+        <v>258.1487290210691</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300387</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412052</v>
+        <v>417.9290555270983</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453859</v>
+        <v>413.4811482412589</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729485</v>
+        <v>365.7386879866854</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057267</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391731</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090825</v>
+        <v>362.4370987013342</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560229</v>
+        <v>464.3606345170044</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686916</v>
+        <v>613.3549356216656</v>
       </c>
       <c r="M29" t="n">
-        <v>998.2650306858918</v>
+        <v>714.4648774745414</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744755</v>
+        <v>730.6860786459836</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519771</v>
+        <v>676.49618339161</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993243</v>
+        <v>542.5243454152571</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975441</v>
+        <v>358.7538494294766</v>
       </c>
       <c r="R29" t="n">
-        <v>114.983017737945</v>
+        <v>188.1288798669577</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1813500985075</v>
+        <v>145.1600573702394</v>
       </c>
       <c r="K30" t="n">
-        <v>179.4606093324458</v>
+        <v>327.0459261984171</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343541005</v>
+        <v>208.3809676901416</v>
       </c>
       <c r="M30" t="n">
-        <v>571.292282763563</v>
+        <v>587.3263535628737</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386555</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661448</v>
+        <v>542.37930757032</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>415.7788615889108</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.5137273396372</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.06796436278239</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556112</v>
+        <v>77.28342579308824</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150775</v>
+        <v>258.1487290210691</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300387</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412052</v>
+        <v>417.9290555270983</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453859</v>
+        <v>413.4811482412589</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729485</v>
+        <v>365.7386879866854</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057267</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391731</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090808</v>
+        <v>275.6377970070069</v>
       </c>
       <c r="K32" t="n">
-        <v>753.883703966829</v>
+        <v>464.3606345170044</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686884</v>
+        <v>613.3549356216656</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751043</v>
+        <v>714.4648774745414</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744719</v>
+        <v>730.6860786459836</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519736</v>
+        <v>676.49618339161</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993214</v>
+        <v>629.3236471095846</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975419</v>
+        <v>358.7538494294766</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379438</v>
+        <v>188.1288798669577</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>145.1600573702394</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965421</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>486.5440533591182</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635603</v>
+        <v>18.78387281115677</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386528</v>
+        <v>617.4253212811573</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661421</v>
+        <v>542.37930757032</v>
       </c>
       <c r="P33" t="n">
-        <v>255.1826221262112</v>
+        <v>415.7788615889108</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.4359084623096</v>
+        <v>227.5137273396372</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>33.06796436278239</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.5325769855605</v>
+        <v>77.28342579308824</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150765</v>
+        <v>258.1487290210691</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393342</v>
+        <v>386.4288033300387</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412038</v>
+        <v>417.9290555270983</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453846</v>
+        <v>413.4811482412589</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729472</v>
+        <v>365.7386879866854</v>
       </c>
       <c r="P34" t="n">
-        <v>282.777843884684</v>
+        <v>289.1943660057267</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391724</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070069</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170044</v>
       </c>
       <c r="L35" t="n">
-        <v>677.0902038955306</v>
+        <v>613.3549356216656</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>714.4648774745414</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459836</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>676.49618339161</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>695.0400669825666</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>358.7538494294766</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939753</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>486.5440533591182</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>587.3263535628737</v>
       </c>
       <c r="N36" t="n">
-        <v>427.6049843945016</v>
+        <v>227.1108622624621</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>542.37930757032</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>415.7788615889108</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.5137273396372</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.7799221106625</v>
+        <v>77.28342579308824</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210691</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300387</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270983</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>413.4811482412589</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866854</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057267</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070069</v>
       </c>
       <c r="K38" t="n">
-        <v>525.6867728671539</v>
+        <v>464.3606345170044</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216656</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>714.4648774745414</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459836</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>676.49618339161</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>542.5243454152571</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>511.2695709967862</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939753</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>145.1600573702394</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>327.0459261984171</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>587.3263535628737</v>
       </c>
       <c r="N39" t="n">
-        <v>529.9140969282151</v>
+        <v>617.4253212811573</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>133.3349539793043</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>415.7788615889108</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.5137273396372</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.06796436278239</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>77.28342579308824</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210691</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300387</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270983</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>413.4811482412589</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866854</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057267</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607203</v>
+        <v>275.6377970070069</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380627</v>
+        <v>464.3606345170044</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216656</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020584</v>
+        <v>714.4648774745414</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459836</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870087</v>
+        <v>829.0119049589194</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>542.5243454152571</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404113</v>
+        <v>358.7538494294766</v>
       </c>
       <c r="R41" t="n">
-        <v>178.6700086136723</v>
+        <v>122.4124599939753</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069152</v>
+        <v>63.16162997764071</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104636</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>427.6049843945008</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>587.3263535628737</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>617.4253212811573</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981762</v>
+        <v>542.37930757032</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839153</v>
+        <v>415.7788615889108</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.5137273396372</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.06796436278239</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066055</v>
+        <v>77.28342579308824</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642058</v>
+        <v>258.1487290210691</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243781</v>
+        <v>386.4288033300387</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270983</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209162</v>
+        <v>413.4811482412589</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866854</v>
       </c>
       <c r="P43" t="n">
-        <v>293.465085693136</v>
+        <v>289.1943660057267</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>275.6377970070067</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>464.360634517004</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>613.3549356216652</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>866.980599041854</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>730.6860786459831</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>676.4961833916095</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>542.5243454152567</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>358.7538494294763</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>122.4124599939751</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>478.9404915665528</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>587.3263535628732</v>
       </c>
       <c r="N45" t="n">
-        <v>379.5262112417387</v>
+        <v>617.4253212811569</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>542.3793075703196</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>227.513727339637</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.06796436278231</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295339</v>
+        <v>77.28342579308816</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>258.148729021069</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>386.4288033300385</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>417.9290555270981</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>413.4811482412587</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>365.7386879866852</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>289.1943660057265</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>115.9453301615508</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
